--- a/data/output/moderate_noisy/results/psnr.xlsx
+++ b/data/output/moderate_noisy/results/psnr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\moderate_noisy\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADED5FA-4143-4354-9DB6-76A4C9807B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86D01CB-F1B1-447E-B202-E7CBF8AD50DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,13 +438,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>33.96404588</v>
+        <v>34.419735850000002</v>
       </c>
       <c r="B2">
-        <v>34.889224820000003</v>
+        <v>35.406702490000001</v>
       </c>
       <c r="C2">
-        <v>35.788420879999997</v>
+        <v>36.999498080000002</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
